--- a/backend/fms_core/tests/valid_templates/Library_conversion_v4_4_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Library_conversion_v4_4_0.xlsx
@@ -901,7 +901,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="24.78"/>
@@ -1067,41 +1067,41 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="0" t="n">
+      <c r="H9" s="15"/>
+      <c r="I9" s="0" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="15"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
@@ -1445,11 +1445,12 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="16"/>
+      <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="16"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="15"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2552,9 +2553,9 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="H167" s="15"/>
@@ -3006,7 +3007,7 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
-      <c r="F217" s="15"/>
+      <c r="F217" s="2"/>
       <c r="H217" s="15"/>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4483,6 +4484,7 @@
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
       <c r="F381" s="15"/>
+      <c r="H381" s="15"/>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="2"/>
@@ -4506,6 +4508,7 @@
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
+      <c r="F384" s="15"/>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="2"/>
@@ -8791,41 +8794,47 @@
       <c r="D996" s="2"/>
       <c r="E996" s="2"/>
     </row>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+    </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="8">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C9:C380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C10:C381" type="list">
       <formula1>Index!$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F383" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F384" type="list">
       <formula1>Index!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E10:E381" type="list">
       <formula1>Index!$B$2:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H9:H380" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H10:H381" type="list">
       <formula1>Index!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7:C9" type="list">
       <formula1>Info!$A$2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E9" type="list">
       <formula1>Info!$B$2:$B$7</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F7:F9" type="list">
       <formula1>Info!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H8" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H7:H9" type="list">
       <formula1>Info!$D$2:$D$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8853,7 +8862,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.67"/>
@@ -9103,46 +9112,20 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>21</v>
-      </c>
+      <c r="A7" s="23"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="23"/>
-      <c r="E7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="13" t="n">
-        <v>25</v>
-      </c>
-      <c r="L7" s="13" t="n">
-        <v>15</v>
-      </c>
+      <c r="H7" s="24"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="2"/>
       <c r="M7" s="13"/>
-      <c r="N7" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="O7" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="P7" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
@@ -9150,60 +9133,83 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L8" s="13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O8" s="13" t="n">
         <v>5</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
+      <c r="A9" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="D9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="J9" s="24"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
+      <c r="K9" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="L9" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13" t="str">
-        <f aca="false">IF(M9,M9/K9, "" )</f>
-        <v/>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="25"/>
+      <c r="N9" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="23"/>
@@ -9380,7 +9386,7 @@
       <c r="A19" s="23"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="26"/>
+      <c r="D19" s="23"/>
       <c r="H19" s="24"/>
       <c r="J19" s="24"/>
       <c r="K19" s="13"/>
@@ -9399,7 +9405,7 @@
       <c r="A20" s="23"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="26"/>
       <c r="H20" s="24"/>
       <c r="J20" s="24"/>
       <c r="K20" s="13"/>
@@ -16289,6 +16295,7 @@
         <v/>
       </c>
       <c r="P382" s="2"/>
+      <c r="Q382" s="2"/>
       <c r="R382" s="25"/>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16577,6 +16584,7 @@
         <v/>
       </c>
       <c r="P398" s="2"/>
+      <c r="R398" s="25"/>
     </row>
     <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="23"/>
@@ -17973,10 +17981,16 @@
       <c r="P480" s="2"/>
     </row>
     <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A481" s="2"/>
+      <c r="A481" s="23"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
-      <c r="D481" s="2"/>
+      <c r="D481" s="23"/>
+      <c r="H481" s="24"/>
+      <c r="J481" s="24"/>
+      <c r="K481" s="13"/>
+      <c r="L481" s="13"/>
+      <c r="M481" s="13"/>
+      <c r="N481" s="13"/>
       <c r="O481" s="13" t="str">
         <f aca="false">IF(M481,M481/K481, "" )</f>
         <v/>
@@ -17988,8 +18002,11 @@
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
-      <c r="N482" s="2"/>
-      <c r="O482" s="2"/>
+      <c r="O482" s="13" t="str">
+        <f aca="false">IF(M482,M482/K482, "" )</f>
+        <v/>
+      </c>
+      <c r="P482" s="2"/>
     </row>
     <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="2"/>
@@ -22111,32 +22128,39 @@
       <c r="N997" s="2"/>
       <c r="O997" s="2"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A998" s="2"/>
+      <c r="B998" s="2"/>
+      <c r="C998" s="2"/>
+      <c r="D998" s="2"/>
+      <c r="N998" s="2"/>
+      <c r="O998" s="2"/>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H9:H480" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H10:H481" type="list">
       <formula1>Index!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A381" type="list">
-      <formula1>'Conversion Batch'!$A$7:$A$380</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A10:A382" type="list">
+      <formula1>'Conversion Batch'!$A$7:$A$381</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R9:R381" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R10:R382" type="list">
       <formula1>Index!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A8" type="list">
-      <formula1>'Conversion Batch'!$A$11:$A$384</formula1>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A5:A9" type="list">
+      <formula1>'Conversion Batch'!$A$12:$A$385</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H5" type="list">
       <formula1>Info!$E$2:$E$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="R5:R9" type="list">
       <formula1>Info!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -22522,7 +22546,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>
